--- a/biology/Zoologie/Centre_de_recherches_sur_la_biologie_des_populations_d'oiseaux/Centre_de_recherches_sur_la_biologie_des_populations_d'oiseaux.xlsx
+++ b/biology/Zoologie/Centre_de_recherches_sur_la_biologie_des_populations_d'oiseaux/Centre_de_recherches_sur_la_biologie_des_populations_d'oiseaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_de_recherches_sur_la_biologie_des_populations_d%27oiseaux</t>
+          <t>Centre_de_recherches_sur_la_biologie_des_populations_d'oiseaux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Centre de recherches sur la biologie des populations d'oiseaux, également connu comme le Centre de recherches par le baguage des populations d'oiseaux (CRBPO) est un organisme français chargé de coordonner le suivi des populations d'oiseaux en France, notamment au moyen du baguage. Il est intégré au sein du Centre d'écologie et des sciences de la conservation (CESCO), UMR 7204 du Muséum national d'histoire naturelle, du CNRS et de l'Université Pierre-et-Marie-Curie, et hébergé par le Muséum[1].
-Dirigé par Pierre-Yves Henry depuis janvier 2019, il possède un personnel permanent de huit personnes issues du MNHN et du CNRS. Il recrute et forme des bénévoles qui capturent, baguent les oiseaux sauvages et recueillent des données morphologiques qui peuvent ensuite être exploitées par des ornithologues[2]. Dans ce cadre, le CRBPO bénéficie d'une dérogation pluriannuelle pour capture d'espèces protégées et chassables pour baguage à fins scientifiques, qui lui permet ensuite de délivrer des autorisations de capture aux bagueurs[2]. En 2009, près de 500 bénévoles ont réalisé 286 000 baguages[3]. Les données sont transmises au département scientifique chargé de la connaissance et la gestion de la biodiversité du muséum, à l'organisme européen EURING et à d'autres intervenants comme le CNRS et des associations ornithologiques locales participantes.
-Le CRBPO est l'initiateur du programme de sciences participatives Vigie-Nature[2]. Il est également à l'origine, en 1989, du Suivi temporel des oiseaux communs (STOC), qui associe approche par capture-baguage-recapture (STOC-Capture) et approche par point d'écoute (STOC-EPS), et permet de produire des indices d'abondance des populations d'oiseaux communs[4]. Le programme a été décliné ensuite en Suivi hivernal des oiseaux communs (SHOC).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Centre de recherches sur la biologie des populations d'oiseaux, également connu comme le Centre de recherches par le baguage des populations d'oiseaux (CRBPO) est un organisme français chargé de coordonner le suivi des populations d'oiseaux en France, notamment au moyen du baguage. Il est intégré au sein du Centre d'écologie et des sciences de la conservation (CESCO), UMR 7204 du Muséum national d'histoire naturelle, du CNRS et de l'Université Pierre-et-Marie-Curie, et hébergé par le Muséum.
+Dirigé par Pierre-Yves Henry depuis janvier 2019, il possède un personnel permanent de huit personnes issues du MNHN et du CNRS. Il recrute et forme des bénévoles qui capturent, baguent les oiseaux sauvages et recueillent des données morphologiques qui peuvent ensuite être exploitées par des ornithologues. Dans ce cadre, le CRBPO bénéficie d'une dérogation pluriannuelle pour capture d'espèces protégées et chassables pour baguage à fins scientifiques, qui lui permet ensuite de délivrer des autorisations de capture aux bagueurs. En 2009, près de 500 bénévoles ont réalisé 286 000 baguages. Les données sont transmises au département scientifique chargé de la connaissance et la gestion de la biodiversité du muséum, à l'organisme européen EURING et à d'autres intervenants comme le CNRS et des associations ornithologiques locales participantes.
+Le CRBPO est l'initiateur du programme de sciences participatives Vigie-Nature. Il est également à l'origine, en 1989, du Suivi temporel des oiseaux communs (STOC), qui associe approche par capture-baguage-recapture (STOC-Capture) et approche par point d'écoute (STOC-EPS), et permet de produire des indices d'abondance des populations d'oiseaux communs. Le programme a été décliné ensuite en Suivi hivernal des oiseaux communs (SHOC).
 </t>
         </is>
       </c>
